--- a/data/main-data/Restaurant.xlsx
+++ b/data/main-data/Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICB_AP\PycharmProjects\banglaText\data\main-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4666FFB0-2E71-4E75-A044-DAF4A8FCFAB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05301605-CC9D-4865-B3E9-4163B98F62CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="705" windowWidth="24000" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5617,7 +5617,7 @@
   <dimension ref="A1:D2060"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="C2" t="s">
         <v>326</v>
@@ -5660,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1715</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>327</v>
@@ -5674,7 +5674,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="C4" t="s">
         <v>328</v>
@@ -5758,7 +5758,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>1715</v>
       </c>
       <c r="C10" t="s">
         <v>327</v>

--- a/data/main-data/Restaurant.xlsx
+++ b/data/main-data/Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICB_AP\PycharmProjects\banglaText\data\main-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05301605-CC9D-4865-B3E9-4163B98F62CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655E37B4-8996-4795-AB48-97260D73EF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="24000" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5617,7 +5617,7 @@
   <dimension ref="A1:D2060"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/main-data/Restaurant.xlsx
+++ b/data/main-data/Restaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICB_AP\PycharmProjects\banglaText\data\main-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655E37B4-8996-4795-AB48-97260D73EF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ADB694-A69F-4EA4-80DE-EFEE6C3BEDCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="24000" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="24000" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5165,9 +5165,6 @@
     <t xml:space="preserve">যেমন ভাল নকশা এবং বায়ুমণ্ডল। </t>
   </si>
   <si>
-    <t>শুধুমাত্র,রিডামিং ফ্যাক্টর খাদ্য ছিল,পুরোপুরি ন্যায্য হওয়ার জন্য,  , যা গড়ের চেয়েও বেশি ছিল, কিন্তু অন্যান্য দুর্বলতাগুলির জন্য এটি তৈরি করা সম্ভব হয়নি।</t>
-  </si>
-  <si>
     <t>তিনি পাখি বিশেষজ্ঞ ,থাইল্যান্ড গিয়েছিলেন।</t>
   </si>
   <si>
@@ -5205,6 +5202,9 @@
   </si>
   <si>
     <t>মূল্যবান, কিন্তু একবার চেষ্টা একবার মূল্য, অন্তত একবার।</t>
+  </si>
+  <si>
+    <t>শুধুমাত্র,রিডামিং ফ্যাক্টর খাদ্য ছিল, সবচাইতে আলবত পুরোপুরি ন্যায্য হওয়ার জন্য,  , যা গড়ের চেয়েও বেশি ছিল, কিন্তু অন্যান্য দুর্বলতাগুলির জন্য এটি তৈরি করা সম্ভব হয়নি।</t>
   </si>
 </sst>
 </file>
@@ -5617,7 +5617,7 @@
   <dimension ref="A1:D2060"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="C2" t="s">
         <v>326</v>
@@ -5674,7 +5674,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C4" t="s">
         <v>328</v>
@@ -5716,7 +5716,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1717</v>
+        <v>1726</v>
       </c>
       <c r="C7" t="s">
         <v>328</v>
@@ -5730,7 +5730,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C8" t="s">
         <v>327</v>
@@ -5758,7 +5758,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C10" t="s">
         <v>327</v>
@@ -5898,7 +5898,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C20" t="s">
         <v>327</v>
@@ -5996,7 +5996,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C27" t="s">
         <v>326</v>
@@ -6010,7 +6010,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C28" t="s">
         <v>328</v>
@@ -6122,7 +6122,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C36" t="s">
         <v>327</v>
@@ -6136,7 +6136,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C37" t="s">
         <v>329</v>
@@ -6150,7 +6150,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C38" t="s">
         <v>328</v>
@@ -6374,7 +6374,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C54" t="s">
         <v>330</v>
@@ -6654,7 +6654,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C74" t="s">
         <v>327</v>
@@ -6668,7 +6668,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C75" t="s">
         <v>327</v>
@@ -6892,7 +6892,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C91" t="s">
         <v>329</v>
@@ -6906,7 +6906,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C92" t="s">
         <v>328</v>

--- a/data/main-data/Restaurant.xlsx
+++ b/data/main-data/Restaurant.xlsx
@@ -5643,8 +5643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C221" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H218" sqref="H218"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
